--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>Hot/AboutForm</t>
+  </si>
+  <si>
+    <t>TestForm</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>Hot/TestForm</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1479,6 +1488,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
